--- a/venda-geral-as-is.xlsx
+++ b/venda-geral-as-is.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="What - Perspectiva Executiva" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="How - Perspectivas 2 e 3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'How - Perspectivas 2 e 3'!$B$33:$R$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'How - Perspectivas 2 e 3'!$B$32:$R$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t xml:space="preserve">Glossário de termos de negócio</t>
   </si>
@@ -327,16 +327,26 @@
     <t xml:space="preserve">Prover Assessoria Jurídica</t>
   </si>
   <si>
-    <t xml:space="preserve">Respaldar negociação de parceira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fornecer suporte jurídico a uma negociação</t>
-  </si>
-  <si>
     <t xml:space="preserve">Emitir paracer jurídico</t>
   </si>
   <si>
-    <t xml:space="preserve">Elaborar análise técnica sobre uma questão legal</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fornecer suporte jurídico a uma negociação e e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">laborar análise técnica sobre uma questão legal</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Provisionar Soluções de TI</t>
@@ -508,7 +518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -558,12 +568,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -606,7 +610,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,7 +620,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -685,12 +689,6 @@
         <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
@@ -747,7 +745,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -812,10 +810,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -856,7 +850,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,7 +858,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -872,7 +866,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,11 +890,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -908,35 +902,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -969,7 +963,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -1198,7 +1192,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.09"/>
@@ -1388,11 +1382,11 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="62.57"/>
@@ -1460,13 +1454,13 @@
       <c r="D6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -1474,17 +1468,17 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="11" t="s">
@@ -1492,9 +1486,9 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="11" t="s">
@@ -1502,17 +1496,17 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -1520,9 +1514,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="16" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1530,17 +1524,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1548,8 +1542,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9" t="s">
         <v>65</v>
       </c>
@@ -1558,8 +1552,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="9" t="s">
         <v>67</v>
       </c>
@@ -1568,8 +1562,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
@@ -1579,108 +1573,99 @@
     </row>
     <row r="19" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="15"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="17" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20"/>
+      <c r="B23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
-      <c r="B26" s="17" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20"/>
+      <c r="B26" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
+    <row r="27" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20"/>
+      <c r="B28" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="C28" s="16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="3.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="17" t="s">
+      <c r="D28" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1703,17 +1688,16 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A18"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A20:A29"/>
+    <mergeCell ref="A20:A28"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1732,15 +1716,15 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.09"/>
@@ -1766,1027 +1750,1030 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="68.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="E1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="O1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="Q1" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="R1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="S1" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="26" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="U2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="U2" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="V2" s="29"/>
+      <c r="V2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="29"/>
+      <c r="S3" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31" t="s">
+      <c r="V3" s="33"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="U4" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="V3" s="34"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="U4" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="V4" s="34"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="S5" s="36"/>
-      <c r="U5" s="29" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="35"/>
+      <c r="U5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="28"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="U6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="29"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
+      <c r="V6" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="U6" s="29" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="V6" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="35"/>
+      <c r="S14" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" s="36"/>
-      <c r="S14" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15" s="30"/>
-      <c r="S15" s="33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="S17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="S17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="40" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="39" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="S30" s="29"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
+      <c r="B32" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="S31" s="30"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="43" t="s">
+      <c r="B33" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="31"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="46"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="40"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="46"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="46"/>
-      <c r="U36" s="46"/>
-      <c r="V36" s="33"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="34"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="35"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="46"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46"/>
-      <c r="U38" s="46"/>
-      <c r="V38" s="37"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="38"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="44" t="s">
         <v>137</v>
       </c>
       <c r="B39" s="46" t="s">
@@ -2811,36 +2798,9 @@
       <c r="S39" s="46"/>
       <c r="T39" s="46"/>
       <c r="U39" s="46"/>
-      <c r="V39" s="39"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="38"/>
-    </row>
+      <c r="V39" s="37"/>
+    </row>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2862,6 +2822,7 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B32:U32"/>
     <mergeCell ref="B33:U33"/>
     <mergeCell ref="B34:U34"/>
     <mergeCell ref="B35:U35"/>
@@ -2869,7 +2830,6 @@
     <mergeCell ref="B37:U37"/>
     <mergeCell ref="B38:U38"/>
     <mergeCell ref="B39:U39"/>
-    <mergeCell ref="B40:U40"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
